--- a/xlsx/customer_sample.xlsx
+++ b/xlsx/customer_sample.xlsx
@@ -18,21 +18,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>chun nam</t>
-  </si>
-  <si>
-    <t>likencw@naver.com</t>
-  </si>
-  <si>
     <t>010-2222-4444</t>
   </si>
   <si>
-    <t>jw nam</t>
-  </si>
-  <si>
-    <t>jiwoo@naver.com</t>
-  </si>
-  <si>
     <t>010-3333-2222</t>
   </si>
   <si>
@@ -52,11 +40,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiwoo</t>
+    <t>victory@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>god1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +82,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,14 +109,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -406,44 +424,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -455,7 +473,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:C3" numberStoredAsText="1"/>
+    <ignoredError sqref="C3 C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
